--- a/mail_data.xlsx
+++ b/mail_data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanalan\Desktop\audit_message\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanalan\Desktop\audit_message\auto-email-by-outlook\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -52,7 +52,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>amber.guo@tuv.com;cindy.yin@tuv.com</t>
+    <t>fuyou_tan@sina.cn</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -618,7 +618,7 @@
   <dimension ref="A1:E494"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
